--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1639D4CF-3EC9-4D03-A398-B813AB2B51F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E1147-AA59-4566-B657-9CF7E77AF177}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,6 +643,9 @@
       <c r="C21" s="3">
         <v>61</v>
       </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
@@ -675,6 +678,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
       <c r="C25" s="3">
         <v>65</v>
       </c>
@@ -808,11 +814,11 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D41">
         <f>SUM(A4:A40)+SUM(D4:D37)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5">
         <f>D41/77</f>
-        <v>0.58441558441558439</v>
+        <v>0.61038961038961037</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">

--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E1147-AA59-4566-B657-9CF7E77AF177}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Corrigé (cpt)</t>
   </si>
@@ -39,11 +33,17 @@
   <si>
     <t>outil de =&gt; étendre à une classe sémantique</t>
   </si>
+  <si>
+    <t>Reste (cpt)</t>
+  </si>
+  <si>
+    <t>Reste (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -123,6 +123,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,26 +218,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,23 +253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,6 +656,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
       <c r="C26" s="3">
         <v>66</v>
       </c>
@@ -713,6 +683,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
       <c r="C29" s="3">
         <v>69</v>
       </c>
@@ -729,6 +702,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
       <c r="C31" s="3">
         <v>71</v>
       </c>
@@ -744,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -755,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>74</v>
       </c>
@@ -763,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -774,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -785,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -796,37 +772,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41">
         <f>SUM(A4:A40)+SUM(D4:D37)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41" s="5">
         <f>D41/77</f>
-        <v>0.61038961038961037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="F41">
+        <f>77-D41</f>
+        <v>27</v>
+      </c>
+      <c r="G41" s="6">
+        <f>1-E41</f>
+        <v>0.35064935064935066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -848,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DC8A0-C03E-41EE-B410-72827BAFA93D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Progression" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +67,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -124,6 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +235,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,6 +540,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
       <c r="C7" s="3">
         <v>47</v>
       </c>
@@ -497,11 +551,17 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
       <c r="C8" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
       <c r="C9" s="3">
         <v>49</v>
       </c>
@@ -510,6 +570,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
       <c r="C10" s="3">
         <v>50</v>
       </c>
@@ -518,6 +581,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
       <c r="C11" s="3">
         <v>51</v>
       </c>
@@ -534,6 +600,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
       <c r="C13" s="3">
         <v>53</v>
       </c>
@@ -591,6 +660,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
       <c r="C19" s="3">
         <v>59</v>
       </c>
@@ -599,6 +671,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
       <c r="C20" s="3">
         <v>60</v>
       </c>
@@ -607,6 +682,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
       <c r="C21" s="3">
         <v>61</v>
       </c>
@@ -790,19 +868,19 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41">
         <f>SUM(A4:A40)+SUM(D4:D37)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E41" s="5">
         <f>D41/77</f>
-        <v>0.64935064935064934</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="F41">
         <f>77-D41</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G41" s="6">
         <f>1-E41</f>
-        <v>0.35064935064935066</v>
+        <v>0.23376623376623373</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,28 +901,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DC8A0-C03E-41EE-B410-72827BAFA93D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C516F-9FD0-4ADD-A7F8-E5981D7211BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progression" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,6 +712,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
       <c r="C24" s="3">
         <v>64</v>
       </c>
@@ -772,6 +775,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
       <c r="C30" s="3">
         <v>70</v>
       </c>
@@ -868,19 +874,19 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41">
         <f>SUM(A4:A40)+SUM(D4:D37)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="5">
         <f>D41/77</f>
-        <v>0.76623376623376627</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="F41">
         <f>77-D41</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="6">
         <f>1-E41</f>
-        <v>0.23376623376623373</v>
+        <v>0.20779220779220775</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">

--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C516F-9FD0-4ADD-A7F8-E5981D7211BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4822A7-DF18-4A38-8781-E010A8E32A92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -130,7 +136,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -141,6 +146,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,243 +488,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="3.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="C1" s="3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3">
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>45</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>47</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>49</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>50</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>51</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="3">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
         <v>52</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>53</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>54</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>57</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>58</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>59</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>60</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>61</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>62</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>63</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>64</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -726,170 +748,174 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>65</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>66</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>67</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>68</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>69</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>70</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>71</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>72</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>73</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>74</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>75</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
         <v>76</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
         <v>77</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41">
-        <f>SUM(A4:A40)+SUM(D4:D37)</f>
-        <v>61</v>
-      </c>
-      <c r="E41" s="5">
+        <f>SUM(A1:A40)+SUM(D1:D37)</f>
+        <v>67</v>
+      </c>
+      <c r="E41" s="4">
         <f>D41/77</f>
-        <v>0.79220779220779225</v>
+        <v>0.87012987012987009</v>
       </c>
       <c r="F41">
         <f>77-D41</f>
-        <v>16</v>
-      </c>
-      <c r="G41" s="6">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5">
         <f>1-E41</f>
-        <v>0.20779220779220775</v>
+        <v>0.12987012987012991</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>SUM(A1:A40)</f>
+        <v>34</v>
+      </c>
       <c r="D42" t="s">
         <v>0</v>
       </c>

--- a/dossiers/Final - Suivi des corrections.xlsx
+++ b/dossiers/Final - Suivi des corrections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4822A7-DF18-4A38-8781-E010A8E32A92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BD2C37-86FB-4E49-B9EB-E38135D6525F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Corrigé (cpt)</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>Reste (%)</t>
+  </si>
+  <si>
+    <t>coorélation</t>
+  </si>
+  <si>
+    <t>à propos de</t>
+  </si>
+  <si>
+    <t>de X à Y : Rastier en parlait…</t>
+  </si>
+  <si>
+    <t>Reprendre en conclusion : problème : solution, général : spécifique, sujet : méthode, majeure : mineure</t>
+  </si>
+  <si>
+    <t>Sourcer ce problème de représentativité du nombre d'occurrences</t>
+  </si>
+  <si>
+    <t>toujours le problème du ratio avant/après que vous n'avez pas calculé...</t>
+  </si>
+  <si>
+    <t>Ok, très bien mais arrive un peu trop tard, et doit être mis plus en avant et détaillé.</t>
   </si>
 </sst>
 </file>
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,7 +518,7 @@
     <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -508,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -520,15 +541,18 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -539,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -550,15 +574,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -569,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -580,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -591,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -602,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -613,15 +643,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
       <c r="C12" s="2">
         <v>52</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -631,8 +670,14 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -643,23 +688,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -670,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -681,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -692,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -703,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -714,7 +771,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="2">
         <v>62</v>
       </c>
@@ -722,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -733,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -747,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -758,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -769,7 +832,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
       <c r="C27" s="2">
         <v>67</v>
       </c>
@@ -777,15 +843,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
       <c r="C28" s="2">
         <v>68</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -796,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -807,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -818,7 +893,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
       <c r="C32" s="2">
         <v>72</v>
       </c>
@@ -838,6 +916,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
       <c r="C34" s="2">
         <v>74</v>
       </c>
@@ -896,25 +977,25 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D41">
         <f>SUM(A1:A40)+SUM(D1:D37)</f>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E41" s="4">
         <f>D41/77</f>
-        <v>0.87012987012987009</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <f>77-D41</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41" s="5">
         <f>1-E41</f>
-        <v>0.12987012987012991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>SUM(A1:A40)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
